--- a/Table2.xlsx
+++ b/Table2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>distance=Slider</t>
   </si>
@@ -87,6 +87,30 @@
   </si>
   <si>
     <t>TimeTillDestruction=Slider</t>
+  </si>
+  <si>
+    <t>[dimentionless]=[dimentionless]/[dimentionless]</t>
+  </si>
+  <si>
+    <t>quality = 10 - NrDisabled/NrEscort</t>
+  </si>
+  <si>
+    <t>CostDecrease = CostWheelchairsPerHour*TimeBetweenFlights</t>
+  </si>
+  <si>
+    <t>Euro=euro/hour * hour</t>
+  </si>
+  <si>
+    <t>distance,NrDisabled, SalaryPerHour, TimeBetweenFlights, WheelchairsPerMaintainers,Vescort, CostWheelchairsPerHour, quality</t>
+  </si>
+  <si>
+    <t>CostWheelchairsPerHour = TotalCostWheelchair/TimeTillDestruction</t>
+  </si>
+  <si>
+    <t>Euro = euro/hour * hours</t>
+  </si>
+  <si>
+    <t>distance,NrDisabled, SalaryPerHour, TimeBetweenFlights, WheelchairsPerMaintainers,Vescort, TotalCostWheelchair, TimeTillDestruction, quality</t>
   </si>
 </sst>
 </file>
@@ -210,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -237,6 +261,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -519,99 +552,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
